--- a/BlackBoxTesting/TestSet.xlsx
+++ b/BlackBoxTesting/TestSet.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u413\source\repos\BlackBoxTesting\BlackBoxTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +21,98 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+  <si>
+    <t>Квадратные уравнения</t>
+  </si>
+  <si>
+    <t>Положительный дискриминант</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Дискриминант равен 0</t>
+  </si>
+  <si>
+    <t>Отрицательный дискриминант</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Ввод букв и символов</t>
+  </si>
+  <si>
+    <t>Вид четырехугольника</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>Квадрат</t>
+  </si>
+  <si>
+    <t>Прямоугольник</t>
+  </si>
+  <si>
+    <t>Ромб</t>
+  </si>
+  <si>
+    <t>Параллелограм</t>
+  </si>
+  <si>
+    <t>Равнобедренная трапеция</t>
+  </si>
+  <si>
+    <t>Прямоугольная трапеция</t>
+  </si>
+  <si>
+    <t>Трапеция общего вида</t>
+  </si>
+  <si>
+    <t>Четырехугольник общего вида</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Ввод букв и символов и пустые поля</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,10 +134,59 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +195,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +510,1152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
+    <col min="4" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D9:K9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>